--- a/regionalizacao/tests/data/test_EtapaTipoEscolaFromToSpreadsheet.xlsx
+++ b/regionalizacao/tests/data/test_EtapaTipoEscolaFromToSpreadsheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">tipoesc</t>
   </si>
@@ -34,7 +34,7 @@
     <t xml:space="preserve">CCI/CIPS</t>
   </si>
   <si>
-    <t xml:space="preserve">Centros de Convivência Infantil/Centros Infantis de Proteção à Saúde</t>
+    <t xml:space="preserve">desc1</t>
   </si>
   <si>
     <t xml:space="preserve">Infantil</t>
@@ -43,7 +43,10 @@
     <t xml:space="preserve">CEI DIRET</t>
   </si>
   <si>
-    <t xml:space="preserve">Centro de Educação Infantil Direto</t>
+    <t xml:space="preserve">desc2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infantil tb</t>
   </si>
 </sst>
 </file>
@@ -53,11 +56,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -80,6 +84,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -141,7 +151,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -155,6 +165,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -238,12 +252,14 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:3"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="88.92"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -269,14 +285,14 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
